--- a/Texts/Город Сокровищ/Все персонажи/Шеймин 2.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Шеймин 2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -55,6 +55,120 @@
   </si>
   <si>
     <t xml:space="preserve"> Üóï ïœåîû âàçîúå äìÿ îàò øâåóú...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I heard a [CS:I]Gracidea[CR] was used to\nget down from the summit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> That\'s right. Using this flower,\nwe can change our appearance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Our appearance changes pretty\ndrastically, so please don\'t be surprised.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я узнал, что [CS:I]Грацидеей[CR]\nвоспользовались, чтобы спуститься с\nвершины горы.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Так и есть. Коснувшись этого\nцветка, мы можем изменить свой облик.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Наши облики сильно изменяются,\nпоэтому, не стоит этому удивляться.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ôèîàì, œóï [CS:I]Ãñàøéäååê[CR]\nâïòðïìûèïâàìéòû, œóïáú òðôòóéóûòÿ ò\nâåñšéîú ãïñú.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óàë é åòóû. Ëïòîôâšéòû üóïãï\nøâåóëà, íú íïçåí éèíåîéóû òâïê ïáìéë.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàšé ïáìéëé òéìûîï éèíåîÿýóòÿ,\nðïüóïíô, îå òóïéó üóïíô ôäéâìÿóûòÿ.</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P11A/us0202.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Would you like a [CS:I]Gracidea[CR]?</t>
+  </si>
+  <si>
+    <t>Yes, please.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Here you go.</t>
+  </si>
+  <si>
+    <t>[CN][hero] received\n[CN]a [CS:I]Gracidea[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh? It seems you\'re carrying too\nmany items.</t>
+  </si>
+  <si>
+    <t>No, thanks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I see.\nWell, you\'re still welcome to one if you change\nyour mind.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Хотите взять [CS:I]Грацидею[CR]?</t>
+  </si>
+  <si>
+    <t>Да, пожалуйста.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Держите.</t>
+  </si>
+  <si>
+    <t>[CN][hero] получает [CS:I]Грацидею[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Что? Кажется, у вас много вещей.</t>
+  </si>
+  <si>
+    <t>Спасибо, не нужно.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Понятно. Ну, если передумаете,\nобращайтесь.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öïóéóå âèÿóû [CS:I]Ãñàøéäåý[CR]?</t>
+  </si>
+  <si>
+    <t>Äà, ðïçàìôêòóà.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äåñçéóå.</t>
+  </si>
+  <si>
+    <t>[CN][hero] ðïìôœàåó [CS:I]Ãñàøéäåý[CR]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œóï? Ëàçåóòÿ, ô âàò íîïãï âåþåê.</t>
+  </si>
+  <si>
+    <t>Òðàòéáï, îå îôçîï.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïîÿóîï. Îô, åòìé ðåñåäôíàåóå,\nïáñàþàêóåòû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> When we [CS:K]Shaymin[CR] use a\n[CS:I]Gracidea[CR], we can change our appearance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Когда мы, [CS:K]Шеймины[CR], касаемся\n[CS:I]Грацидеи[CR], мы можем изменить нашу\nвнешность.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëïãäà íú, [CS:K]Šåêíéîú[CR], ëàòàåíòÿ\n[CS:I]Ãñàøéäåé[CR], íú íïçåí éèíåîéóû îàšô\nâîåšîïòóû.</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P11A/us0301.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P11A/us0402.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P11A/us2001.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/D73P11A/us2101.ssb</t>
   </si>
 </sst>
 </file>
@@ -85,7 +199,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -117,11 +231,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -136,6 +259,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -418,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -482,6 +611,191 @@
         <v>11</v>
       </c>
     </row>
+    <row r="4" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B4" s="4">
+        <v>90</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B5" s="4">
+        <v>93</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6">
+        <v>96</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="4">
+        <v>30</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="4">
+        <v>34</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="4">
+        <v>39</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="4">
+        <v>49</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="4">
+        <v>58</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="4">
+        <v>65</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="6">
+        <v>69</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B14" s="4">
+        <v>19</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6">
+        <v>22</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
